--- a/upset_plot.xlsx
+++ b/upset_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hisugimoto/Torpor_transomics/SupTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60FE2F-3181-BE4C-A7D4-60A48FB4A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71E8F7-AD14-D847-B746-630155F97A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="-300" windowWidth="27900" windowHeight="16540" xr2:uid="{13EED59C-4B77-4848-A36C-3CB1F20D963F}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="19460" windowHeight="21300" firstSheet="16" activeTab="18" xr2:uid="{13EED59C-4B77-4848-A36C-3CB1F20D963F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabo (Brain, increased)" sheetId="9" r:id="rId1"/>
@@ -31,10 +31,14 @@
     <sheet name="mRNA (Liver,decreased)" sheetId="2" r:id="rId16"/>
     <sheet name="mRNA (Muscle, increased)" sheetId="3" r:id="rId17"/>
     <sheet name="mRNA (Muscle, decreased)" sheetId="4" r:id="rId18"/>
-    <sheet name="Phospho (Liver, increased)" sheetId="5" r:id="rId19"/>
-    <sheet name="Phospho (Liver, decreased)" sheetId="6" r:id="rId20"/>
-    <sheet name="Phospho (Muscle, increased)" sheetId="7" r:id="rId21"/>
-    <sheet name="Phospho (Muscle, decreased)" sheetId="8" r:id="rId22"/>
+    <sheet name="Protein (Liver, increased)" sheetId="23" r:id="rId19"/>
+    <sheet name="Protein (Liver, decreased)" sheetId="24" r:id="rId20"/>
+    <sheet name="Protein (Muscle, increased)" sheetId="25" r:id="rId21"/>
+    <sheet name="Protein (Muscle, decreased)" sheetId="26" r:id="rId22"/>
+    <sheet name="Phospho (Liver, increased)" sheetId="5" r:id="rId23"/>
+    <sheet name="Phospho (Liver, decreased)" sheetId="6" r:id="rId24"/>
+    <sheet name="Phospho (Muscle, increased)" sheetId="7" r:id="rId25"/>
+    <sheet name="Phospho (Muscle, decreased)" sheetId="8" r:id="rId26"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
   <si>
     <t>Condition</t>
   </si>
@@ -490,6 +494,76 @@
   </si>
   <si>
     <t>Asp, Glu, Glucosamine</t>
+  </si>
+  <si>
+    <t>Proteins</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abca8b, Abcb11, Abhd11, Abi1, Acaa2, Acadm, Acadvl, Aco2, Actn4, Adhfe1, Adipoq, Adnp, Adprs, Agmat, Ak3, Alb, Alyref, Angptl4, Anxa2, Anxa5, Api5, Apoa1, Apoa5, Apoc1, Apoc2, Apoc3, Apoc4, Apoe, Arglu1, Arpc5l, Arsa, Baiap2, Baiap2l1, Bnip3, Brap, Bsg, C1qa, Cacna2d1, Calm1, Calm2, Calm3, Ccar1, Ccar2, Ccdc22, Ccdc90b, Cd2ap, Cdc5l, Cdc5lrt1, Cdc5lrt6, Cdc5lrt7, Cdc5lrt8, Cdc5lrt9, Cdh2, Cdkn2aip, Ces1b, Cgn, Chchd3, Ciao2b, Cirbp, Clint1, Cln5, Clpx, Clybl, Cobll1, Coq5, Cox6b1, Cpeb2, Cpsf6, Creb3l3, Cstf2, Ctnna1, Ctnnbl1, Ctnnd1, Ctsb, Cutc, Cyp4a10, Cyp4a14, Dcps, Ddx23, Ddx39b, Ddx42, Ddx46, Dhodh, Dido1, Dlat, Dpp4, Dpy30, Dpysl2, Ech1, Eftud2, Ehd3, Eif1, Eif1b, Enpep, Eny2, Errfi1, Etfa, Exosc6, Fam234a, Fcgr2, Fcgr2b, Fdx1, Fip1l1, Fkbp5, Flot2, Fth1, Ftl1, Fus, Gabpa, Garem1, Gatad2b, Glb1l, Gle1, Gm2a, Gm7324, Gns, Gpcpd1, Gpld1, Gtf2b, H2ac11, H2ac12, H2ac13, H2ac15, H2ac25, H2ac4, H2ac6, H2ac7, H2ac8, H2az1, H2az2, H4c1, Hdgf, Hdgfl3, Hexa, Hgs, Hibadh, Hist1h2af, Hist1h2an, Hist1h2ao, Hist1h2ap, Hmga1, Hnrnpa1, Hnrnpa3, Hnrnpab, Hnrnpd, Hnrnph2, Hnrnpk, Hnrnpl, Hnrnpm, Hnrnpr, Hnrnpu, Hnrnpul1, Hnrnpul2, Hras, Hsd17b10, Hspd1, Hspe1, Hspe1-rs1, Hycc2, Ilf3, Insr, Itga5, Itprid2, Khdrbs1, Ktn1, Larp4b, Lipa, Lmna, Lmnb2, Lnpep, Lsm3, Luc7l3, Lyrm4, Macroh2a2, Mad1l1, Maip1, Manba, Map7, Matr3, Mcc, Mix23, Mprip, Mrc1, Mrpl12, Mrpl55, Mtx1, Mug1, Myo1c, Naalad2, Naaladl2, Ncln, Nde1, Ndrg1, Ndufb10, Ndufb4, Nelfa, Neu1, Nfrkb, Npc1, Nudt16, Nudt21, Nudt4, Nup153, Nup54, Optn, Paf1, Palmd, Pals2, Parva, Pcbd2, Pcca, Pck1, Pcyt1a, Pdhx, Pdk2, Pdzk1, Pecam1, Pgghg, Phb1, Picalm, Plbd2, Plekho2, Plin4, Plin5, Plpbp, Plvap, Pnn, Pnpla2, Polr1c, Ppa2, Ppm1g, Ppp4r2, Ppt2, Prdx3, Prelp, Prkar2a, Psme3, Pspc1, Ptms, Rab9, Rab9a, Rabgef1, Rad21, Ramac, Ramacl, Rbm10, Rbm15, Rbmxl1, Rbp4, Rbpms, Rcc1, Rdx, Rmdn3, Rnmt, Rprd2, Rps15, Sae1, Safb2, Sarnp, Sart1, Sart3, Scly, Scrib, Sdc4, Sdf4, Septin11, Septin2, Serpina3m, Serpina3n, Sf3a3, Sf3b1, Sf3b3, Sf3b4, Sf3b6, Sfpq, Slain2, Slc16a1, Smap2, Smarcc2, Smarce1, Smc3, Smpd1, Smpdl3a, Snrpa1, Snrpb2, Snrpd1, Sntb1, Snw1, Snx2, Snx5, Snx6, Sod1, Sod2, Son, Sorbs1, Sorbs3, Sphk2, Srrm2, Srrt, Srsf11, Srsf4, Srsf6, Ssrp1, St3gal5, Stoml2, Sts, Stx16, Stx4, Stx6, Sub1, Sun2, Suox, Supt6h, Taldo1, Tcp11l2, Tdo2, Tdrd3, Tfam, Tgoln1, Tgoln2, Timm9, Tlcd4, Tma16, Tmem30a, Tmod3, Tra2b, Ttc33, Uqcc3, Uqcrb, Wasl, Xrn2, Ylpm1, Zfand6</t>
+  </si>
+  <si>
+    <t>Acin1, Aga, Agrn, Agt, Alas1, Anp32a, Atp6v1c1, Bin2, Bpifa2, Calcrl, Cd38, Chia, Chia1, Clip1, Col18a1, Commd5, Ctsc, Dbnl, Ddx5, Emilin1, Epb41l2, F11r, F9, Ganc, Gimap4, Gjb1, Gm20521, Grcc10, H2-K1, Hdgfl2, Herpud1, Igf1, Itgb1, Lrch1, Mpo, Mtrex, Ncstn, Ndel1, Nectin2, Npc2, Pabpn1, Parp3, Parvb, Phyh, Prcc, Psap, Pura, Ranbp3, Sf3b5, Sh3bgrl, Slc25a47, Slc9a1, Snx3, Srrm1, Srsf3, Ssb, Sting1, Susd2, Tcn2, Tfr2, Thbs1, Utp14a, Vcam1, Vwf, Xrcc6</t>
+  </si>
+  <si>
+    <t>Acmsd, Actr10, Adh4, Adss1, Ambp, Amdhd2, Apol9a, Asns, Atg4b, Brcc3, Cd74, Cep85, Cisd2, Coch, Coro1a, Csrp1, Cth, Dcaf11, Dop1b, Dpyd, Ear6, Enpp3, Fbxo3, G6pdx, Ghitm, Gltp, Gnpda1, Gnpnat1, Gstm7, Gsto1, H2-T23, Hat1, Hgd, Hnmt, Ifitm3, Igfals, Lcn2, Lcp1, Lgals3, Lhpp, Mid1ip1, Nagk, Pank4, Pfkl, Pigr, Ppat, Ppp6r3, Prkaa2, Prkab1, Prkag1, Ptprf, Rab32, Rbks, S1pr1, Sar1a, Svip, Tmt1a, Tmt1b, Ttc38, Ttc39b, Use1, Usp12, Vasp</t>
+  </si>
+  <si>
+    <t>Akap8, Anp32b, Anpep, Arhgdib, Bclaf1, Calcoco1, Cavin2, Chtop, Cr1l, Ctsl, Ddah2, Dlg1, Ecm1, Eps15l1, Gprin3, Hcfc1, Hexb, Hnrnpa2b1, Hnrnpc, Hp1bp3, Igfbp1, Irf2bp2, Itga1, Itsn1, Khsrp, Lamp1, Lmnb1, Lpin1, Lpin2, Lsm8, Macroh2a1, Mapt, Mecp2, Mt1, Mt2, Ncl, Nherf2, Npm1, Pacsin3, Pdk4, Plin2, Plxnb2, Polr2c, Puf60, Rprd1b, Septin7, Set, Sf1, Sf3a1, Sf3b2, Snrnp70, Snrpa, Srsf1, Srsf2, Srsf5, Srsf7, Thrap3, Tor1aip1, Txnip, Ubtf, Vcl</t>
+  </si>
+  <si>
+    <t>Anxa1, Apod, Camp, Chil3, F10, F7, Fermt3, Hrg, Itgb2, Ldlr, Ltf, Lyz2, Nfil3, Ngp, Ppbp, S100a8, S100a9, Slc38a2, Tat, Ubl5, Ubl5b, Upp2</t>
+  </si>
+  <si>
+    <t>Cebpb, Slc7a2</t>
+  </si>
+  <si>
+    <t>Abcb4, Abhd2, Acaa2, Acadvl, Acsm1, Acsm2, Adam23, Aifm2, Api5, Apoa1, Arsb, Atp5f1b, Bnip3, C1s1, Cab39l, Cars1, Ccdc51, Ces2g, Clpp, Clpx, Coa3, Cope, Cpeb2, Cpeb4, Cpox, Cpq, Creb3l3, Cs, Csnk1d, Csnk1e, Ctif, Cyp27a1, Cyp4a10, Cyp8b1, D17h6s53e, Dcaf7, Dctn1, Ddhd2, Decr1, Dennd2d, Dgat2, Dglucy, Dnaja2, Dnaja3, Dnm1l, Ech1, Eef1a2, Eef1d, Ehd3, Eif5a, Eif5a2, Elovl3, Ergic1, F12, Fahd2, Fkbp5, Flot2, Fmc1, Galnt2, Gars1, Gch1, Gfra1, Glrx5, Glud1, Gns, Gpcpd1, Gpd2, Gpr182, Gtpbp1, Gusb, Hdhd3, Hgs, Hibch, Hint2, Hsd17b10, Hsd17b2, Hspd1, Iba57, Idua, Igfbp4, Igha, Insig2, Jchain, Klc4, Larp4, Lman2, Lnpk, Lpin1, Man2b1, Man2b2, Mapre3, Mcc, Mfn2, Mgll, Mrpl1, Mrpl13, Mrpl15, Mrpl24, Mrpl39, Mrpl46, Mrps23, Mup2, Naa25, Naglu, Nceh1, Ncln, Ndufb11, Nln, Nlrx1, Nmt1, Npc1, Nsf, Nudt4, Optn, Pabpc1, Paip1, Pam16, Pam16l, Pctp, Pdk1, Pdk2, Pgam5, Pklr, Plbd2, Plin2, Plin5, Pnpla2, Ppm1g, Ppt2, Prox1, Prxl2b, Qars1, Qsox1, Rbp4, Rbpms, Rbpms2, Rpl12, Rpl26, Rpl35, Rpl38, Rpl6, Rpl7, Rplp0, Rps13, Rps18, Rps18-ps6, Rps19, Rps20, Rps7, S100a10, Samd4b, Sdr39u1, Selenbp2, Serpina3m, Serpina3n, Serpinf1, Serpinf2, Sfxn5, Sh3glb1, Shmt2, Slc25a32, Slc39a4, Slco1a1, Smap2, Smim20, Smpdl3a, Sod2, Spg7, Srp72, Srsf4, Ssr4, St3gal5, Stoml2, Sun2, Tbl1xr1, Tcp11l2, Tgoln1, Tgoln2, Thbd, Timmdc1, Tkfc, Tkt, Tlcd4, Tmbim6, Tmed10, Tmem205, Tnfaip8l1, Tubg1, Tubg2, Ube4b, Ubr3, Ufsp2, Vnn3, Vps37c, Wasl, Ythdf3, Zfand6</t>
+  </si>
+  <si>
+    <t>Aars1, Abcf2, Abhd12, Acox3, Acsl3, Acsl4, Actr10, Actr1a, Adh1, Agpat2, Ahsa1, Alas2, Alg11, Alg3, Alg5, Alkbh7, Als2, Ap3d1, Apol9a, Arf5, Arl6ip1, Atp2a2, Atp6v1h, Aup1, Babam2, Bcas3, Brcc3, C8b, Cct4, Chchd2, Chm, Cisd3, Cml1, Cnep1r1, Cpne3, Cptp, Cul2, Cyp2c70, Ddc, Dhcr24, Dhrs7, Dnajc10, Dnajc25, Dpm3, Drg2, Dtx3l, Eef1a1, Eefsec, Eif2b1, Eif2b5, Eif3c, Erlin2, Ero1a, Esd, F10, F2, Faah, Fam114a2, Fkbp8, Fmo1, Fndc3a, Gart, Gdi2, Ggcx, Gnai3, Gps1, Gpx4, Grb7, Hbb-y, Hsd17b12, Hsd17b13, Hspa4l, Hspbp1, Hsph1, Hyou1, Igfals, Ipo5, Kdelr2, Kyat3, Lpcat3, Mid1ip1, Mlxipl, Mocs3, Mrps18c, Mtmr9, Nat8f1, Nek9, Nsun4, Odr4, Oma1, Osbp, Oxa1l, Pafah2, Parp14, Pde3b, Pemt, Pi4k2a, Pigk, Plaa, Ppp5c, Ppp6c, Prkaa2, Prkca, Psma6, Psmd1, Ptcd2, Ptpn1, Ptprf, Rab14, Rab18, Rab21, Rab2a, Rab2b, Rab32, Rab3a, Rab7, Rab7a, Rabggta, Rdh16f2, Rnf181, Rpl18a, Rpl19, Rpl24, Rpl27a, Rpl32, Rpl34, Rpl36a, Rps11, Rps27, Rusf1, S1pr1, Sacm1l, Sar1a, Saraf, Sec24d, Sgpl1, Slc22a18, Slc25a16, Slc25a17, Slc25a45, Slc31a1, Slc33a1, Smpd2, Sqor, Srp9, Srpra, Stard4, Tcea3, Tcp1, Tex2, Tex264, Tf, Tgm2, Tmed7, Tmem167, Tmem167a, Tmem214, Tmem33, Tmem41b, Tmprss6, Tmt1a, Tmt1b, Tuba1c, Ubr1, Ugt1a10, Ugt1a6, Ugt1a9, Ugt2b1, Usp4, Usp47, Vkorc1, Wfs1, Xpo7, Yipf3, Yipf5, Ykt6, Zbed5, Zfyve1, Zmpste24, Zyg11b</t>
+  </si>
+  <si>
+    <t>Amfr, Bysl, C9, Ccdc117, Cyp2a4, Dnajc7, Fmo5, Gabarapl2, Ipo7, Lgals8, Mob1a, Mob1b, Nrdc, Pdxdc1, Pnkd, Ppp1r3c, Retreg2, Stard7, Tbrg4, Ube3c</t>
+  </si>
+  <si>
+    <t>Clec2d, Cyp2j6, Dnajb9, Drg1, F13b, Hspa13, Ivns1abp, Lpgat1, Man2a1, Nbr1, Ncbp2as2, Rtf2, Serf2, Tax1bp1, Usp25</t>
+  </si>
+  <si>
+    <t>Fkbp4, Ghitm, Hint3, Palld, Psmd12, Sec62, Sqstm1, Wipi2</t>
+  </si>
+  <si>
+    <t>Hsp90ab1, Snap47</t>
+  </si>
+  <si>
+    <t>Hsp90aa1, Sar1b</t>
+  </si>
+  <si>
+    <t>Armc8, Cars1, Clptm1, Cycs, Echdc2, Eci2, Eif3h, Eif3i, Eif3k, Elp5, Fbp2, Fxr1, Gabarapl2, Gpx1, Iars1, Ide, Impdh2, Jph1, Kti12, Lrpap1, Man2a2, Mios, Nudt14, Pfdn2, Plod1, Poglut3, Ppm1b, Psme2, Rab7, Rab7a, Rpl10a, Rpl27, Rpl30, Rpl5, Rps13, Rps19, Rps24, Rps3, Rrm1, Sar1a, Sar1b, Serbp1, Smyd2, Tsn, Ubap2, Uqcrq</t>
+  </si>
+  <si>
+    <t>Fbxo32, Gss, Hspb3, Pdk4, Reg1, Tcap, Txnip</t>
+  </si>
+  <si>
+    <t>Creld2, Ddx5, Phyh, Pik3r1, Sec61a1</t>
+  </si>
+  <si>
+    <t>Trim63</t>
+  </si>
+  <si>
+    <t>Abcf2, Aimp1, Aimp2, Cct6a, Clec1b, Dars1, Eef1d, Eef1e1, Eef1g, Eef2, Eif2b5, Eif3k, Eif5b, Farsb, Fbxw11, Fxr1, Gabarapl2, Gm45713, Hpd, Iars1, Ipo7, Kars1, Lars1, Lman2l, Map1lc3a, Map1lc3b, Mars1, Myorg, Naa10, Pex7, Pgm3, Phka1, Phkb, Qars1, Rab2a, Rab2b, Rab5b, Rack1, Rpl10, Rpl10a, Rpl10l, Rpl13a, Rpl17, Rpl23, Rpl24, Rpl27, Rpl27a, Rpl28, Rpl3l, Rpl7, Rpl7a, Rpl8, Rps15, Rps15a, Rps19, Rps3, Rps3a, Rps6, Sar1b, Sh2b1, Smtnl2, Surf4, Tars1, Tars3, Tbl2, Tcp1, Usp4</t>
+  </si>
+  <si>
+    <t>Abcb1a, Acot8, Acox1, Acsl3, Acy1, Ahsa1, Akt2, Angptl7, Atp6v1d, Cab39, Cnn1, Cnp, Col6a6, Csnk2a2, Cul3, Dffa, Echdc1, Eml2, Fkbp5, Glul, Hagh, Hnrnpr, Hsp90aa1, Hsph1, Igha, Ldhb, Lgals1, Lmod2, Mdh1, Myoc, Ppid, Prps1, Prps1l3, Psmf1, Rbbp7, Rnpep, Smu1, Sqstm1, St13, Svip, Thy1, Tor1b, Trim63, Ufl1</t>
+  </si>
+  <si>
+    <t>Mylk4</t>
+  </si>
+  <si>
+    <t>Pex19</t>
+  </si>
+  <si>
+    <t>Apoa4</t>
   </si>
 </sst>
 </file>
@@ -873,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A978073-17C5-AF4C-B62A-6BD085858FCB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1819,10 +1893,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F10F6-379A-D546-BFC5-B19759061EBB}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB39E8F5-65AA-F946-9804-30386788C56C}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -1839,62 +1913,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>822</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>669</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>539</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>299</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1902,21 +1976,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2022,6 +2085,379 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2C1BE7-1BD6-E04B-851D-EB51F99FC184}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>197</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D5B77-61B8-9D4C-AE6E-ECA3B14E09C8}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC86B5A-829C-6645-A036-7C877CC60D04}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F10F6-379A-D546-BFC5-B19759061EBB}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="3" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>822</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>669</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>539</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>299</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C00825-707C-2B49-AD3E-D9FD5F0D260F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2128,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D4374-D980-934A-BC68-669B90625A75}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2224,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F069A55E-936F-9349-BECE-F435A6A6BA43}">
   <dimension ref="A1:C7"/>
   <sheetViews>
